--- a/medicine/Enfance/Tête,_Épaules,_Genoux_et_Pieds/Tête,_Épaules,_Genoux_et_Pieds.xlsx
+++ b/medicine/Enfance/Tête,_Épaules,_Genoux_et_Pieds/Tête,_Épaules,_Genoux_et_Pieds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%AAte,_%C3%89paules,_Genoux_et_Pieds</t>
+          <t>Tête,_Épaules,_Genoux_et_Pieds</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Head, Shoulders, Knees and Toes, connue dans sa version française sous le titre Tête, Épaules, Genoux et Pieds, est une chanson enfantine.
 La chanson se pratique souvent en touchant les parties du corps au moment de les chanter.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%AAte,_%C3%89paules,_Genoux_et_Pieds</t>
+          <t>Tête,_Épaules,_Genoux_et_Pieds</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Paroles françaises</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tête, épaules, genoux et pieds,
